--- a/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 8 Permutations/8.2/No constants/trial_8.2_NOconstant_output.xlsx
+++ b/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 8 Permutations/8.2/No constants/trial_8.2_NOconstant_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="18345" windowHeight="11745" tabRatio="877" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="18345" windowHeight="11745" tabRatio="877" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
@@ -1352,7 +1352,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>0.29456146315239301</v>
+        <v>0.31340589843110728</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.45334347172877087</v>
+        <v>0.81784399356117932</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>2.2903654604622607</v>
+        <v>0.31897356641545183</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1399,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>-7.2696019250844041E-2</v>
+        <v>4.0704848277978226E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.50665344534986734</v>
+        <v>1.2763252158261853</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>2.3405652544936029</v>
+        <v>-6.8341714754867278E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-2.0363670756069823</v>
+        <v>-1.9794090510770921</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.96655573582873222</v>
+        <v>-0.89020246593128949</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1480,10 +1480,10 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0.33818326896414236</v>
+        <v>1.6517034868941354</v>
       </c>
       <c r="C4">
-        <v>0.14903795890123439</v>
+        <v>0.80355636273399977</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.2184468411280569E-8</v>
+        <v>1.1307916401083287E-9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>1.6495889930534866</v>
+        <v>1.0588517580794632</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>22666</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>24</v>
       </c>
       <c r="B8">
-        <v>2.2606274502532353E-10</v>
+        <v>1.6896798687566769E-10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>1.4046450089961763E-8</v>
+        <v>1.1175099036090508E-9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>5.2280892398854622E-8</v>
+        <v>2.1058970298402674E-9</v>
       </c>
     </row>
   </sheetData>
@@ -2266,7 +2266,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2321,10 +2321,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-2</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -2654,40 +2654,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.64561055632850028</v>
+        <v>-0.6435055754054021</v>
       </c>
       <c r="D2">
-        <v>-0.85985431315124117</v>
+        <v>-0.85894189805469767</v>
       </c>
       <c r="E2">
-        <v>-0.82719471592349991</v>
+        <v>-0.82719445806623282</v>
       </c>
       <c r="F2">
-        <v>-0.73865022735028307</v>
+        <v>-0.73877142795677853</v>
       </c>
       <c r="G2">
-        <v>-0.6631289701865295</v>
+        <v>-0.66313735119876516</v>
       </c>
       <c r="H2">
-        <v>-0.61077902378834059</v>
+        <v>-0.61077673205877914</v>
       </c>
       <c r="I2">
-        <v>-0.57693970552733631</v>
+        <v>-0.57695688340669071</v>
       </c>
       <c r="J2">
-        <v>-0.55548702446950815</v>
+        <v>-0.55550810136892814</v>
       </c>
       <c r="K2">
-        <v>-0.54187114279323345</v>
+        <v>-0.5418847689720081</v>
       </c>
       <c r="L2">
-        <v>-0.53315509049036969</v>
+        <v>-0.53316051868150793</v>
       </c>
       <c r="M2">
-        <v>-0.52752221967796797</v>
+        <v>-0.52752434354349509</v>
       </c>
       <c r="N2">
-        <v>-0.52385343954841024</v>
+        <v>-0.52385631081463258</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2698,40 +2698,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.51985755647242438</v>
+        <v>-0.51750644128539913</v>
       </c>
       <c r="D3">
-        <v>-0.96037562931696341</v>
+        <v>-0.95863304853420639</v>
       </c>
       <c r="E3">
-        <v>-1.2581729043050049</v>
+        <v>-1.2580780694677571</v>
       </c>
       <c r="F3">
-        <v>-1.4348158806117417</v>
+        <v>-1.4353727778564955</v>
       </c>
       <c r="G3">
-        <v>-1.5342132669989381</v>
+        <v>-1.5346440804020076</v>
       </c>
       <c r="H3">
-        <v>-1.5908033065122622</v>
+        <v>-1.590988507112185</v>
       </c>
       <c r="I3">
-        <v>-1.6245732169274039</v>
+        <v>-1.6246293397187541</v>
       </c>
       <c r="J3">
-        <v>-1.645766440920625</v>
+        <v>-1.6457658830162578</v>
       </c>
       <c r="K3">
-        <v>-1.6595377327455532</v>
+        <v>-1.6594983437202535</v>
       </c>
       <c r="L3">
-        <v>-1.6686453502748007</v>
+        <v>-1.6685663275457168</v>
       </c>
       <c r="M3">
-        <v>-1.6747060298827647</v>
+        <v>-1.674588963940792</v>
       </c>
       <c r="N3">
-        <v>-1.6787418303696189</v>
+        <v>-1.6785896792599782</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2742,40 +2742,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.53947764472165449</v>
+        <v>0.52916817760706936</v>
       </c>
       <c r="D4">
-        <v>0.66083789007444005</v>
+        <v>0.65985380951791484</v>
       </c>
       <c r="E4">
-        <v>0.69507083644159118</v>
+        <v>0.69514273201567112</v>
       </c>
       <c r="F4">
-        <v>0.71074572630303112</v>
+        <v>0.71032247211252897</v>
       </c>
       <c r="G4">
-        <v>0.72264338809577633</v>
+        <v>0.72210675934841562</v>
       </c>
       <c r="H4">
-        <v>0.73266861914152437</v>
+        <v>0.73234367857017202</v>
       </c>
       <c r="I4">
-        <v>0.74067298412333549</v>
+        <v>0.74059287694435383</v>
       </c>
       <c r="J4">
-        <v>0.74663111542006422</v>
+        <v>0.74672943224465416</v>
       </c>
       <c r="K4">
-        <v>0.7508456891157067</v>
+        <v>0.75105527370394443</v>
       </c>
       <c r="L4">
-        <v>0.75373203287688439</v>
+        <v>0.75400610900025111</v>
       </c>
       <c r="M4">
-        <v>0.75567140141162192</v>
+        <v>0.75598100451980388</v>
       </c>
       <c r="N4">
-        <v>0.75696071135513332</v>
+        <v>0.75728903482136767</v>
       </c>
     </row>
   </sheetData>
